--- a/panchayat_api/uploads/aavak.xlsx
+++ b/panchayat_api/uploads/aavak.xlsx
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -746,7 +746,7 @@
           <x14:formula1>
             <xm:f>Vera_List!$A$1:$A$100</xm:f>
           </x14:formula1>
-          <xm:sqref>D9:D1000</xm:sqref>
+          <xm:sqref>D1:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
